--- a/master/ig/ValueSet-FusionType.xlsx
+++ b/master/ig/ValueSet-FusionType.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-13T13:56:11+00:00</t>
+    <t>2024-05-15T14:10:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/master/ig/ValueSet-FusionType.xlsx
+++ b/master/ig/ValueSet-FusionType.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-15T14:10:31+00:00</t>
+    <t>2024-05-15T14:17:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/master/ig/ValueSet-FusionType.xlsx
+++ b/master/ig/ValueSet-FusionType.xlsx
@@ -7,14 +7,14 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from LOINC" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from OSIRIS" r:id="rId5" sheetId="3"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #1" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t>Property</t>
   </si>
@@ -25,13 +25,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://build.fhir.org/ig/arkhn/arkhn-ig-osiris/ValueSet/FusionType</t>
+    <t>https://ig-osiris.cancer.fr/ig/osiris/ValueSet/FusionType</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -58,22 +58,28 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-15T14:17:55+00:00</t>
+    <t>2025-04-22T15:19:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Arkhn</t>
+    <t>institutcancer</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>Arkhn (http://arkhn.com, contact@arkhn.com)</t>
-  </si>
-  <si>
-    <t>Nicolas Riss (nicolas@arkhn.com)</t>
+    <t>institutcancer (http://cancer.fr, osiris@institutcancer.fr)</t>
+  </si>
+  <si>
+    <t>Aurélien JOBARD (osiris@institutcancer.fr)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -101,9 +107,6 @@
   </si>
   <si>
     <t>translocation</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>System URI</t>
@@ -252,7 +255,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -360,20 +363,28 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s" s="2">
         <v>25</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -395,34 +406,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -444,34 +455,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/master/ig/ValueSet-FusionType.xlsx
+++ b/master/ig/ValueSet-FusionType.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-22T15:19:59+00:00</t>
+    <t>2025-04-22T15:20:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/master/ig/ValueSet-FusionType.xlsx
+++ b/master/ig/ValueSet-FusionType.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-22T15:20:25+00:00</t>
+    <t>2025-04-22T15:22:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/master/ig/ValueSet-FusionType.xlsx
+++ b/master/ig/ValueSet-FusionType.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-22T15:22:37+00:00</t>
+    <t>2025-04-22T15:25:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/master/ig/ValueSet-FusionType.xlsx
+++ b/master/ig/ValueSet-FusionType.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-22T15:25:49+00:00</t>
+    <t>2025-04-23T10:11:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
